--- a/experiment/quadratic/ex9_2_1/compare/M-Estacionario/ex9_2_1_M-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_1/compare/M-Estacionario/ex9_2_1_M-Estacionario.xlsx
@@ -479,13 +479,13 @@
         <v>-41.631480151228715</v>
       </c>
       <c r="E2">
-        <v>0.00346293</v>
+        <v>0.002681057</v>
       </c>
       <c r="F2">
-        <v>0.01103598</v>
+        <v>0.016275854</v>
       </c>
       <c r="G2">
-        <v>0.004499535891891892</v>
+        <v>0.003688455623059867</v>
       </c>
       <c r="H2">
         <v>1980</v>
@@ -514,13 +514,13 @@
         <v>-41.631480375564976</v>
       </c>
       <c r="E3">
-        <v>0.00933525</v>
+        <v>0.012346799</v>
       </c>
       <c r="F3">
-        <v>0.02946294</v>
+        <v>0.045381585</v>
       </c>
       <c r="G3">
-        <v>0.011830595331753554</v>
+        <v>0.0146413623625731</v>
       </c>
       <c r="H3">
         <v>15742</v>
